--- a/city-metro-visualization/data/北京/metro_adj_stations.xlsx
+++ b/city-metro-visualization/data/北京/metro_adj_stations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="839">
   <si>
     <t>station_name</t>
   </si>
@@ -43,9 +43,15 @@
     <t>万安</t>
   </si>
   <si>
+    <t>万寿寺</t>
+  </si>
+  <si>
     <t>万寿路</t>
   </si>
   <si>
+    <t>万泉河桥</t>
+  </si>
+  <si>
     <t>万源街</t>
   </si>
   <si>
@@ -85,6 +91,9 @@
     <t>东直门</t>
   </si>
   <si>
+    <t>东管头南</t>
+  </si>
+  <si>
     <t>东风北桥</t>
   </si>
   <si>
@@ -676,7 +685,7 @@
     <t>清华东路西口</t>
   </si>
   <si>
-    <t>清河</t>
+    <t>清河站</t>
   </si>
   <si>
     <t>清源路</t>
@@ -730,6 +739,9 @@
     <t>珠市口</t>
   </si>
   <si>
+    <t>甘家口</t>
+  </si>
+  <si>
     <t>生命科学园</t>
   </si>
   <si>
@@ -742,6 +754,9 @@
     <t>白堆子</t>
   </si>
   <si>
+    <t>白盆窑</t>
+  </si>
+  <si>
     <t>白石桥南</t>
   </si>
   <si>
@@ -826,6 +841,9 @@
     <t>芍药居</t>
   </si>
   <si>
+    <t>花乡东桥</t>
+  </si>
+  <si>
     <t>花园桥</t>
   </si>
   <si>
@@ -835,6 +853,9 @@
     <t>花梨坎</t>
   </si>
   <si>
+    <t>苏州桥</t>
+  </si>
+  <si>
     <t>苏州街</t>
   </si>
   <si>
@@ -1075,6 +1096,9 @@
     <t>{'东四十条': 0.88}</t>
   </si>
   <si>
+    <t>{'首经贸': 0.91}</t>
+  </si>
+  <si>
     <t>{'北京大学东门': 0.92, '海淀黄庄': 0.89}</t>
   </si>
   <si>
@@ -1363,6 +1387,12 @@
     <t>{'前门': 0.99, '桥湾': 0.9}</t>
   </si>
   <si>
+    <t>{'白堆子': 0.75}</t>
+  </si>
+  <si>
+    <t>{'甘家口': 0.75}</t>
+  </si>
+  <si>
     <t>{'化工': 0.75, '大郊亭': 0.84}</t>
   </si>
   <si>
@@ -1453,6 +1483,9 @@
     <t>{'马各庄': 0.99}</t>
   </si>
   <si>
+    <t>{'东管头南': 0.91}</t>
+  </si>
+  <si>
     <t>{'植物园': 0.88}</t>
   </si>
   <si>
@@ -1474,15 +1507,21 @@
     <t>{'安德里北街': 0.93}</t>
   </si>
   <si>
-    <t>{'丰台东大街': 1.3, '丰台南路': 2.94, '丰台站': 2.1, '六里桥': 1.66, '六里桥东': 2.86, '大井': 1.57, '泥洼': 1.24, '西局': 0.81}</t>
+    <t>{'东管头南': 2.79, '丰台东大街': 1.3, '丰台南路': 2.94, '丰台站': 2.1, '六里桥': 1.66, '六里桥东': 2.86, '大井': 1.57, '泥洼': 1.24, '西局': 0.81}</t>
   </si>
   <si>
     <t>{'植物园': 1.81, '茶棚': 1.39, '颐和园西门': 2.67, '香山': 2.59}</t>
   </si>
   <si>
+    <t>{'人民大学': 2.35, '动物园': 2.7, '国家图书馆': 1.4, '慈寿寺': 2.03, '火器营': 2.69, '白堆子': 2.99, '白石桥南': 2.12, '花园桥': 1.72, '苏州桥': 1.6, '西钓鱼台': 2.88, '车道沟': 1.37, '长春桥': 1.79, '魏公村': 1.6}</t>
+  </si>
+  <si>
     <t>{'五棵松': 1.77, '公主坟': 1.29, '六里桥东': 2.87, '军事博物馆': 2.28, '北京西站': 2.67, '慈寿寺': 2.87, '莲花桥': 1.71, '西钓鱼台': 1.8}</t>
   </si>
   <si>
+    <t>{'中关村': 1.39, '人民大学': 2.71, '北京大学东门': 1.55, '北宫门': 2.72, '圆明园': 1.83, '巴沟': 1.33, '海淀黄庄': 1.79, '火器营': 2.33, '知春里': 2.62, '苏州桥': 2.65, '苏州街': 1.17, '西苑': 1.67, '长春桥': 2.99}</t>
+  </si>
+  <si>
     <t>{'亦庄文化园': 1.33, '亦庄桥': 2.14, '荣京东街': 1.28, '荣昌东街': 2.64}</t>
   </si>
   <si>
@@ -1495,7 +1534,7 @@
     <t>{'东直门': 2.85, '东风北桥': 2.49, '亮马桥': 1.41, '光熙门': 2.28, '农业展览馆': 2.28, '太阳宫': 1.48, '将台': 2.97, '枣营': 2.46, '柳芳': 2.1, '芍药居': 2.54}</t>
   </si>
   <si>
-    <t>{'永泰庄': 2.97, '清河': 1.01, '西二旗': 2.52}</t>
+    <t>{'永泰庄': 2.97, '清河站': 1.01, '西二旗': 2.52}</t>
   </si>
   <si>
     <t>{'四道桥': 1.57, '小园': 1.76, '栗园庄': 1.04, '桥户营': 0.86, '石厂': 2.56}</t>
@@ -1522,28 +1561,31 @@
     <t>{'三元桥': 2.85, '东四': 2.48, '东四十条': 0.88, '东大桥': 2.47, '中国美术馆': 2.92, '亮马桥': 2.38, '光熙门': 2.99, '农业展览馆': 2.21, '北新桥': 1.62, '南锣鼓巷': 2.83, '呼家楼': 2.99, '和平里北街': 2.41, '团结湖': 2.38, '安定门': 2.5, '张自忠路': 1.83, '朝阳门': 1.91, '柳芳': 1.86, '雍和宫': 1.82}</t>
   </si>
   <si>
+    <t>{'七里庄': 2.79, '丰台东大街': 2.36, '丰台南路': 2.5, '丰台站': 1.47, '泥洼': 1.61, '纪家庙': 1.38, '花乡东桥': 2.6, '草桥': 2.67, '西局': 2.17, '首经贸': 0.91}</t>
+  </si>
+  <si>
     <t>{'三元桥': 2.49, '亮马桥': 2.29, '农业展览馆': 2.8, '将台': 1.45, '望京南': 2.94, '朝阳公园': 2.84, '枣营': 1.84}</t>
   </si>
   <si>
     <t>{'五福堂': 2.55, '和义': 1.25, '火箭万源': 1.02}</t>
   </si>
   <si>
-    <t>{'五道口': 2.07, '人民大学': 1.94, '北京大学东门': 0.92, '圆明园': 1.82, '巴沟': 2.22, '海淀黄庄': 0.89, '清华东路西口': 2.7, '知春路': 2.17, '知春里': 1.35, '苏州街': 1.27, '西苑': 2.69, '魏公村': 2.96}</t>
+    <t>{'万泉河桥': 1.39, '五道口': 2.07, '人民大学': 1.94, '北京大学东门': 0.92, '圆明园': 1.82, '巴沟': 2.22, '海淀黄庄': 0.89, '清华东路西口': 2.7, '知春路': 2.17, '知春里': 1.35, '苏州桥': 2.54, '苏州街': 1.27, '西苑': 2.69, '魏公村': 2.96}</t>
   </si>
   <si>
     <t>{'东单': 1.83, '东四': 0.58, '东四十条': 2.28, '东直门': 2.92, '什刹海': 1.98, '前门': 2.84, '北京站': 2.51, '北新桥': 1.97, '北海北': 2.3, '南锣鼓巷': 1.26, '天安门东': 1.95, '天安门西': 2.46, '安定门': 2.84, '崇文门': 2.57, '建国门': 2.72, '张自忠路': 1.23, '朝阳门': 2.03, '灯市口': 0.94, '王府井': 1.74, '雍和宫': 2.9}</t>
   </si>
   <si>
-    <t>{'七里庄': 1.3, '丰台南路': 1.65, '丰台站': 1.1, '六里桥': 2.9, '大井': 1.89, '泥洼': 0.96, '科怡路': 2.53, '西局': 1.55, '首经贸': 2.54}</t>
-  </si>
-  <si>
-    <t>{'七里庄': 2.94, '丰台东大街': 1.65, '丰台科技园': 1.69, '丰台站': 1.22, '泥洼': 2.12, '科怡路': 0.89, '西局': 2.99, '郭公庄': 2.94, '首经贸': 2.05}</t>
-  </si>
-  <si>
-    <t>{'丰台南路': 1.69, '丰台站': 2.79, '大葆台': 1.99, '科怡路': 0.81, '郭公庄': 1.28, '首经贸': 2.9}</t>
-  </si>
-  <si>
-    <t>{'七里庄': 2.1, '丰台东大街': 1.1, '丰台南路': 1.22, '丰台科技园': 2.79, '大井': 2.99, '泥洼': 1.0, '科怡路': 2.0, '纪家庙': 2.53, '西局': 1.91, '首经贸': 1.46}</t>
+    <t>{'七里庄': 1.3, '东管头南': 2.36, '丰台南路': 1.65, '丰台站': 1.1, '六里桥': 2.9, '大井': 1.89, '泥洼': 0.96, '科怡路': 2.53, '西局': 1.55, '首经贸': 2.54}</t>
+  </si>
+  <si>
+    <t>{'七里庄': 2.94, '东管头南': 2.5, '丰台东大街': 1.65, '丰台科技园': 1.69, '丰台站': 1.22, '泥洼': 2.12, '白盆窑': 2.72, '科怡路': 0.89, '花乡东桥': 2.35, '西局': 2.99, '郭公庄': 2.94, '首经贸': 2.05}</t>
+  </si>
+  <si>
+    <t>{'丰台南路': 1.69, '丰台站': 2.79, '大葆台': 1.99, '白盆窑': 1.52, '科怡路': 0.81, '花乡东桥': 2.01, '郭公庄': 1.28, '首经贸': 2.9}</t>
+  </si>
+  <si>
+    <t>{'七里庄': 2.1, '东管头南': 1.47, '丰台东大街': 1.1, '丰台南路': 1.22, '丰台科技园': 2.79, '大井': 2.99, '泥洼': 1.0, '科怡路': 2.0, '纪家庙': 2.53, '花乡东桥': 2.63, '西局': 1.91, '首经贸': 1.46}</t>
   </si>
   <si>
     <t>{'万盛东': 2.26, '九棵树': 2.45, '土桥': 0.76, '梨园': 1.25, '群芳': 1.5, '花庄': 2.53, '高楼金': 1.45}</t>
@@ -1579,7 +1621,7 @@
     <t>{'三元桥': 1.41, '东四十条': 2.93, '东直门': 2.38, '东风北桥': 2.29, '农业展览馆': 0.9, '呼家楼': 2.9, '团结湖': 1.74, '太阳宫': 2.86, '朝阳公园': 2.26, '枣营': 1.27, '柳芳': 2.66}</t>
   </si>
   <si>
-    <t>{'中关村': 1.94, '北京大学东门': 2.85, '国家图书馆': 2.67, '大钟寺': 2.03, '巴沟': 2.49, '海淀黄庄': 1.06, '火器营': 2.76, '知春路': 1.91, '知春里': 1.22, '苏州街': 1.6, '西土城': 2.99, '长春桥': 2.49, '魏公村': 1.02}</t>
+    <t>{'万寿寺': 2.35, '万泉河桥': 2.71, '中关村': 1.94, '北京大学东门': 2.85, '国家图书馆': 2.67, '大钟寺': 2.03, '巴沟': 2.49, '海淀黄庄': 1.06, '火器营': 2.76, '知春路': 1.91, '知春里': 1.22, '苏州桥': 1.26, '苏州街': 1.6, '西土城': 2.99, '长春桥': 2.49, '魏公村': 1.02}</t>
   </si>
   <si>
     <t>{'东四': 2.33, '中国美术馆': 1.98, '北新桥': 1.8, '北海北': 0.93, '南锣鼓巷': 0.8, '安定门': 1.65, '安德里北街': 2.19, '平安里': 2.03, '张自忠路': 1.84, '新街口': 2.45, '灯市口': 2.93, '积水潭': 2.32, '西四': 2.45, '雍和宫': 2.21, '鼓楼大街': 1.28}</t>
@@ -1606,7 +1648,7 @@
     <t>{'常营': 2.71, '果园': 2.77, '物资学院路': 2.9, '管庄': 1.71, '草房': 2.06, '通州北苑': 1.61}</t>
   </si>
   <si>
-    <t>{'万寿路': 1.29, '六里桥东': 2.33, '军事博物馆': 0.98, '北京西站': 1.72, '木樨地': 2.36, '湾子': 2.47, '白堆子': 2.27, '花园桥': 2.77, '莲花桥': 1.07, '西钓鱼台': 2.05, '达官营': 2.99}</t>
+    <t>{'万寿路': 1.29, '六里桥东': 2.33, '军事博物馆': 0.98, '北京西站': 1.72, '木樨地': 2.36, '湾子': 2.47, '甘家口': 2.75, '白堆子': 2.27, '花园桥': 2.77, '莲花桥': 1.07, '西钓鱼台': 2.05, '达官营': 2.99}</t>
   </si>
   <si>
     <t>{'大红门': 2.63, '大红门南': 2.58, '新宫': 2.66, '草桥': 1.98, '角门东': 1.62, '角门西': 1.08, '马家堡': 1.89}</t>
@@ -1624,7 +1666,7 @@
     <t>{'大屯路东': 1.19, '安立路': 1.97, '惠新西街北口': 1.9, '惠新西街南口': 2.9, '望京西': 1.72, '芍药居': 2.65}</t>
   </si>
   <si>
-    <t>{'万寿路': 2.28, '公主坟': 0.98, '六里桥东': 2.35, '北京西站': 1.41, '南礼士路': 2.65, '木樨地': 1.38, '湾子': 2.02, '白堆子': 1.86, '白石桥南': 2.87, '花园桥': 2.92, '莲花桥': 1.42, '西钓鱼台': 2.68, '达官营': 2.33}</t>
+    <t>{'万寿路': 2.28, '公主坟': 0.98, '六里桥东': 2.35, '北京西站': 1.41, '南礼士路': 2.65, '木樨地': 1.38, '湾子': 2.02, '甘家口': 2.1, '白堆子': 1.86, '白石桥南': 2.87, '花园桥': 2.92, '莲花桥': 1.42, '西钓鱼台': 2.68, '达官营': 2.33}</t>
   </si>
   <si>
     <t>{'三元桥': 2.28, '东四十条': 2.5, '东大桥': 2.21, '东直门': 2.21, '东风北桥': 2.8, '亮马桥': 0.9, '呼家楼': 2.0, '团结湖': 0.84, '朝阳公园': 1.66, '朝阳门': 2.98, '枣营': 1.17, '金台夕照': 2.72, '金台路': 2.42}</t>
@@ -1642,7 +1684,7 @@
     <t>{'东单': 1.97, '中国美术馆': 2.84, '北京站': 2.56, '和平门': 1.17, '天坛东门': 2.77, '天安门东': 0.89, '天安门西': 0.99, '天桥': 2.03, '宣武门': 2.02, '崇文门': 1.64, '桥湾': 1.22, '灯市口': 2.53, '灵境胡同': 2.7, '王府井': 1.46, '珠市口': 0.99, '磁器口': 2.03, '菜市口': 2.34, '虎坊桥': 1.65, '西单': 2.19, '长椿街': 2.95}</t>
   </si>
   <si>
-    <t>{'国家图书馆': 1.3, '平安里': 2.93, '新街口': 2.46, '白堆子': 1.96, '白石桥南': 1.28, '花园桥': 2.5, '西直门': 1.42, '车公庄': 1.46, '车公庄西': 0.77, '阜成门': 2.17, '魏公村': 2.57}</t>
+    <t>{'万寿寺': 2.7, '国家图书馆': 1.3, '平安里': 2.93, '新街口': 2.46, '甘家口': 1.7, '白堆子': 1.96, '白石桥南': 1.28, '花园桥': 2.5, '西直门': 1.42, '车公庄': 1.46, '车公庄西': 0.77, '阜成门': 2.17, '魏公村': 2.57}</t>
   </si>
   <si>
     <t>{'九龙山': 1.78, '北工大西门': 1.69, '十里河': 2.02, '双井': 1.02, '国贸': 2.75, '大望路': 2.93, '大郊亭': 2.47, '平乐园': 1.37, '广渠门内': 2.56, '广渠门外': 1.47, '方庄': 2.73, '永安里': 2.83, '潘家园': 1.0}</t>
@@ -1654,7 +1696,7 @@
     <t>{'大红门': 2.78, '天桥': 2.52, '景泰': 2.74, '木樨园': 1.89, '永定门外': 1.76, '海户屯': 2.34, '菜市口': 2.73, '虎坊桥': 2.76, '角门东': 2.28, '角门西': 2.23, '陶然亭': 1.54, '马家堡': 1.48}</t>
   </si>
   <si>
-    <t>{'中关村': 0.92, '五道口': 1.87, '人民大学': 2.85, '圆明园': 0.96, '巴沟': 2.75, '海淀黄庄': 1.81, '清华东路西口': 2.23, '知春路': 2.7, '知春里': 2.08, '苏州街': 2.01, '西苑': 2.23}</t>
+    <t>{'万泉河桥': 1.55, '中关村': 0.92, '五道口': 1.87, '人民大学': 2.85, '圆明园': 0.96, '巴沟': 2.75, '海淀黄庄': 1.81, '清华东路西口': 2.23, '知春路': 2.7, '知春里': 2.08, '苏州街': 2.01, '西苑': 2.23}</t>
   </si>
   <si>
     <t>{'东单': 0.84, '东四': 2.31, '东大桥': 2.89, '中国美术馆': 2.51, '前门': 2.56, '国贸': 2.98, '天坛东门': 2.55, '天安门东': 2.25, '崇文门': 0.97, '广渠门内': 1.38, '广渠门外': 2.24, '建国门': 0.83, '朝阳门': 2.26, '桥湾': 2.11, '永安里': 2.02, '灯市口': 1.57, '王府井': 1.38, '珠市口': 2.92, '磁器口': 1.46}</t>
@@ -1669,7 +1711,7 @@
     <t>{'温阳路': 2.63}</t>
   </si>
   <si>
-    <t>{'农大南路': 2.15, '圆明园': 2.79, '安河桥北': 1.27, '西苑': 1.22, '颐和园西门': 2.22}</t>
+    <t>{'万泉河桥': 2.72, '农大南路': 2.15, '圆明园': 2.79, '安河桥北': 1.27, '西苑': 1.22, '颐和园西门': 2.22}</t>
   </si>
   <si>
     <t>{'九龙山': 1.98, '劲松': 1.69, '化工': 2.59, '十里河': 1.93, '南楼梓庄': 2.03, '双井': 2.4, '大郊亭': 2.17, '平乐园': 1.09, '欢乐谷景区': 2.18, '潘家园': 1.4, '百子湾': 2.58}</t>
@@ -1714,7 +1756,7 @@
     <t>{'石门': 2.69}</t>
   </si>
   <si>
-    <t>{'军事博物馆': 2.65, '和平门': 2.81, '复兴门': 0.37, '宣武门': 2.03, '广安门内': 2.04, '木樨地': 1.28, '湾子': 2.86, '灵境胡同': 2.05, '白堆子': 2.94, '菜市口': 2.73, '西单': 1.83, '西四': 2.59, '车公庄': 2.8, '车公庄西': 2.9, '达官营': 2.37, '长椿街': 1.26, '阜成门': 1.85}</t>
+    <t>{'军事博物馆': 2.65, '和平门': 2.81, '复兴门': 0.37, '宣武门': 2.03, '广安门内': 2.04, '木樨地': 1.28, '湾子': 2.86, '灵境胡同': 2.05, '甘家口': 2.37, '白堆子': 2.94, '菜市口': 2.73, '西单': 1.83, '西四': 2.59, '车公庄': 2.8, '车公庄西': 2.9, '达官营': 2.37, '长椿街': 1.26, '阜成门': 1.85}</t>
   </si>
   <si>
     <t>{'北邵洼': 1.68, '昌平东关': 2.68}</t>
@@ -1777,7 +1819,7 @@
     <t>{'张郭庄': 1.28}</t>
   </si>
   <si>
-    <t>{'人民大学': 2.67, '动物园': 1.3, '慈寿寺': 2.76, '白堆子': 2.15, '白石桥南': 1.12, '花园桥': 1.72, '西直门': 2.59, '车公庄': 2.76, '车公庄西': 2.0, '车道沟': 2.73, '魏公村': 1.65}</t>
+    <t>{'万寿寺': 1.4, '人民大学': 2.67, '动物园': 1.3, '慈寿寺': 2.76, '甘家口': 2.33, '白堆子': 2.15, '白石桥南': 1.12, '花园桥': 1.72, '苏州桥': 2.56, '西直门': 2.59, '车公庄': 2.76, '车公庄西': 2.0, '车道沟': 2.73, '魏公村': 1.65}</t>
   </si>
   <si>
     <t>{'花梨坎': 1.62}</t>
@@ -1786,7 +1828,7 @@
     <t>{'东大桥': 1.78, '九龙山': 2.28, '劲松': 2.75, '北京站': 2.98, '双井': 1.73, '呼家楼': 1.58, '四惠': 2.87, '团结湖': 2.74, '大望路': 1.19, '大郊亭': 2.84, '平乐园': 2.96, '广渠门内': 2.94, '广渠门外': 2.04, '建国门': 2.22, '朝阳门': 2.89, '永安里': 0.97, '金台夕照': 0.86, '金台路': 2.12}</t>
   </si>
   <si>
-    <t>{'中关村': 1.82, '五道口': 2.47, '北京大学东门': 0.96, '北宫门': 2.79, '海淀黄庄': 2.71, '清华东路西口': 2.5, '苏州街': 2.69, '西苑': 1.65}</t>
+    <t>{'万泉河桥': 1.83, '中关村': 1.82, '五道口': 2.47, '北京大学东门': 0.96, '北宫门': 2.79, '海淀黄庄': 2.71, '清华东路西口': 2.5, '苏州街': 2.69, '西苑': 1.65}</t>
   </si>
   <si>
     <t>{'万盛东': 2.64, '临河里': 0.76, '梨园': 1.99, '群芳': 1.62, '花庄': 1.86, '高楼金': 0.99}</t>
@@ -1795,7 +1837,7 @@
     <t>{'南楼梓庄': 1.79, '双合': 1.29, '欢乐谷景区': 1.19, '焦化厂': 2.25}</t>
   </si>
   <si>
-    <t>{'南礼士路': 0.37, '和平门': 2.46, '天安门西': 2.94, '宣武门': 1.7, '广安门内': 1.99, '木樨地': 1.64, '灵境胡同': 1.73, '菜市口': 2.5, '西单': 1.47, '西四': 2.35, '车公庄': 2.81, '达官营': 2.6, '长椿街': 1.03, '阜成门': 1.83}</t>
+    <t>{'南礼士路': 0.37, '和平门': 2.46, '天安门西': 2.94, '宣武门': 1.7, '广安门内': 1.99, '木樨地': 1.64, '灵境胡同': 1.73, '甘家口': 2.62, '菜市口': 2.5, '西单': 1.47, '西四': 2.35, '车公庄': 2.81, '达官营': 2.6, '长椿街': 1.03, '阜成门': 1.83}</t>
   </si>
   <si>
     <t>{'七里庄': 1.57, '丰台东大街': 1.89, '丰台站': 2.99, '六里桥': 2.83, '泥洼': 2.51, '西局': 2.38, '郭庄子': 1.96}</t>
@@ -1822,7 +1864,7 @@
     <t>{'公益西桥': 2.58, '刘家窑': 2.93, '和义': 2.43, '大红门': 0.98, '宋家庄': 2.54, '木樨园': 2.51, '海户屯': 1.68, '石榴庄': 1.51, '角门东': 1.61, '角门西': 2.75}</t>
   </si>
   <si>
-    <t>{'丰台科技园': 1.99, '科怡路': 2.79, '郭公庄': 1.13}</t>
+    <t>{'丰台科技园': 1.99, '白盆窑': 2.27, '科怡路': 2.79, '郭公庄': 1.13}</t>
   </si>
   <si>
     <t>{'九龙山': 0.79, '劲松': 2.47, '化工': 1.47, '北工大西门': 2.17, '南楼梓庄': 2.35, '双井': 2.23, '四惠': 1.85, '四惠东': 2.91, '国贸': 2.84, '大望路': 1.97, '平乐园': 1.26, '百子湾': 0.84}</t>
@@ -1912,7 +1954,7 @@
     <t>{'沙河': 1.98}</t>
   </si>
   <si>
-    <t>{'中关村': 2.22, '人民大学': 2.49, '北京大学东门': 2.75, '海淀黄庄': 2.04, '火器营': 1.0, '知春里': 2.99, '苏州街': 1.09, '西苑': 2.69, '车道沟': 2.92, '长春桥': 1.74, '颐和园西门': 2.9}</t>
+    <t>{'万泉河桥': 1.33, '中关村': 2.22, '人民大学': 2.49, '北京大学东门': 2.75, '海淀黄庄': 2.04, '火器营': 1.0, '知春里': 2.99, '苏州桥': 1.82, '苏州街': 1.09, '西苑': 2.69, '车道沟': 2.92, '长春桥': 1.74, '颐和园西门': 2.9}</t>
   </si>
   <si>
     <t>{'八里桥': 2.71, '双桥': 2.62, '管庄': 1.85, '草房': 1.36, '黄渠': 1.84}</t>
@@ -1960,7 +2002,7 @@
     <t>{'光熙门': 1.56, '关庄': 2.9, '北土城': 1.99, '和平西桥': 0.97, '和平里北街': 2.05, '大屯路东': 2.97, '太阳宫': 2.6, '奥体中心': 2.25, '安华桥': 2.17, '安德里北街': 2.92, '安立路': 2.95, '安贞门': 0.99, '惠新西街北口': 1.19, '柳芳': 2.47, '芍药居': 1.57}</t>
   </si>
   <si>
-    <t>{'万寿路': 2.87, '国家图书馆': 2.76, '海淀五路居': 1.62, '白堆子': 2.79, '白石桥南': 2.58, '花园桥': 1.3, '西钓鱼台': 1.11, '车道沟': 1.64, '长春桥': 2.81}</t>
+    <t>{'万寿寺': 2.03, '万寿路': 2.87, '国家图书馆': 2.76, '海淀五路居': 1.62, '白堆子': 2.79, '白石桥南': 2.58, '花园桥': 1.3, '西钓鱼台': 1.11, '车道沟': 1.64, '长春桥': 2.81}</t>
   </si>
   <si>
     <t>{'分钟寺': 0.9, '刘家窑': 2.53, '十里河': 2.45, '宋家庄': 1.64, '小红门': 2.23, '方庄': 2.31, '石榴庄': 2.85, '肖村': 1.3, '蒲黄榆': 2.99}</t>
@@ -2017,7 +2059,7 @@
     <t>{'刘家窑': 1.91, '北京南站': 1.89, '大红门': 1.54, '大红门南': 2.51, '天桥': 2.52, '宋家庄': 2.86, '景泰': 1.16, '永定门外': 0.91, '海户屯': 0.83, '石榴庄': 1.92, '蒲黄榆': 2.16, '角门东': 1.98, '角门西': 2.87, '马家堡': 2.53}</t>
   </si>
   <si>
-    <t>{'公主坟': 2.36, '六里桥东': 2.98, '军事博物馆': 1.38, '北京西站': 1.98, '南礼士路': 1.28, '复兴门': 1.64, '广安门内': 2.66, '湾子': 2.11, '白堆子': 2.09, '莲花桥': 2.55, '车公庄西': 2.84, '达官营': 1.95, '长椿街': 2.37, '阜成门': 2.4}</t>
+    <t>{'公主坟': 2.36, '六里桥东': 2.98, '军事博物馆': 1.38, '北京西站': 1.98, '南礼士路': 1.28, '复兴门': 1.64, '广安门内': 2.66, '湾子': 2.11, '甘家口': 1.8, '白堆子': 2.09, '莲花桥': 2.55, '车公庄西': 2.84, '达官营': 1.95, '长椿街': 2.37, '阜成门': 2.4}</t>
   </si>
   <si>
     <t>{'生命科学园': 1.96, '育知路': 2.15}</t>
@@ -2092,7 +2134,7 @@
     <t>{'沙河': 1.96}</t>
   </si>
   <si>
-    <t>{'七里庄': 1.24, '丰台东大街': 0.96, '丰台南路': 2.12, '丰台站': 1.0, '六里桥': 2.41, '大井': 2.51, '科怡路': 2.96, '纪家庙': 2.95, '西局': 0.91, '首经贸': 2.08}</t>
+    <t>{'七里庄': 1.24, '东管头南': 1.61, '丰台东大街': 0.96, '丰台南路': 2.12, '丰台站': 1.0, '六里桥': 2.41, '大井': 2.51, '科怡路': 2.96, '纪家庙': 2.95, '西局': 0.91, '首经贸': 2.08}</t>
   </si>
   <si>
     <t>{'刘家窑': 1.97, '北京南站': 2.34, '大红门': 0.72, '大红门南': 1.68, '宋家庄': 2.49, '景泰': 1.75, '木樨园': 0.83, '永定门外': 1.74, '石榴庄': 1.35, '蒲黄榆': 2.52, '角门东': 1.45, '角门西': 2.57, '马家堡': 2.47}</t>
@@ -2101,7 +2143,7 @@
     <t>{'五棵松': 2.8, '慈寿寺': 1.62, '田村': 2.04, '花园桥': 2.91, '西钓鱼台': 2.1, '车道沟': 2.25}</t>
   </si>
   <si>
-    <t>{'中关村': 0.89, '五道口': 2.55, '人民大学': 1.06, '北京大学东门': 1.81, '圆明园': 2.71, '大钟寺': 2.57, '巴沟': 2.04, '火器营': 2.67, '知春路': 1.91, '知春里': 0.95, '苏州街': 0.96, '长春桥': 2.78, '魏公村': 2.07}</t>
+    <t>{'万泉河桥': 1.79, '中关村': 0.89, '五道口': 2.55, '人民大学': 1.06, '北京大学东门': 1.81, '圆明园': 2.71, '大钟寺': 2.57, '巴沟': 2.04, '火器营': 2.67, '知春路': 1.91, '知春里': 0.95, '苏州桥': 1.75, '苏州街': 0.96, '长春桥': 2.78, '魏公村': 2.07}</t>
   </si>
   <si>
     <t>{'中关村': 2.7, '五道口': 0.88, '六道口': 1.12, '北京大学东门': 2.23, '北沙滩': 2.44, '圆明园': 2.5, '知春路': 2.69, '知春里': 2.86, '西土城': 2.96}</t>
@@ -2128,7 +2170,7 @@
     <t>{'德茂': 1.48}</t>
   </si>
   <si>
-    <t>{'人民大学': 2.76, '巴沟': 1.0, '海淀黄庄': 2.67, '苏州街': 1.83, '车道沟': 2.04, '长春桥': 0.94}</t>
+    <t>{'万寿寺': 2.69, '万泉河桥': 2.33, '人民大学': 2.76, '巴沟': 1.0, '海淀黄庄': 2.67, '苏州桥': 1.68, '苏州街': 1.83, '车道沟': 2.04, '长春桥': 0.94}</t>
   </si>
   <si>
     <t>{'东高地': 1.02, '五福堂': 1.65, '和义': 2.23}</t>
@@ -2161,6 +2203,9 @@
     <t>{'东单': 2.57, '前门': 0.99, '北京站': 2.92, '和平门': 1.54, '天坛东门': 2.17, '天安门东': 1.86, '天安门西': 1.89, '天桥': 1.04, '宣武门': 2.24, '崇文门': 1.95, '桥湾': 0.9, '永定门外': 2.65, '王府井': 2.19, '磁器口': 1.87, '菜市口': 2.03, '虎坊桥': 1.17, '西单': 2.72, '陶然亭': 2.47}</t>
   </si>
   <si>
+    <t>{'公主坟': 2.75, '军事博物馆': 2.1, '动物园': 1.7, '南礼士路': 2.37, '国家图书馆': 2.33, '复兴门': 2.62, '木樨地': 1.8, '白堆子': 0.75, '白石桥南': 1.31, '花园桥': 2.26, '西直门': 2.6, '车公庄': 1.96, '车公庄西': 1.3, '阜成门': 1.83}</t>
+  </si>
+  <si>
     <t>{'朱辛庄': 1.96, '育知路': 2.89}</t>
   </si>
   <si>
@@ -2170,10 +2215,13 @@
     <t>{'八宝山': 2.85, '廖公庄': 2.21, '海淀五路居': 2.04, '玉泉路': 2.45}</t>
   </si>
   <si>
-    <t>{'公主坟': 2.27, '军事博物馆': 1.86, '动物园': 1.96, '南礼士路': 2.94, '国家图书馆': 2.15, '慈寿寺': 2.79, '木樨地': 2.09, '白石桥南': 1.02, '花园桥': 1.6, '西钓鱼台': 2.36, '车公庄': 2.62, '车公庄西': 1.83, '阜成门': 2.58}</t>
-  </si>
-  <si>
-    <t>{'军事博物馆': 2.87, '动物园': 1.28, '国家图书馆': 1.12, '慈寿寺': 2.58, '白堆子': 1.02, '花园桥': 1.28, '西直门': 2.67, '西钓鱼台': 2.58, '车公庄': 2.45, '车公庄西': 1.57, '阜成门': 2.79, '魏公村': 2.77}</t>
+    <t>{'万寿寺': 2.99, '公主坟': 2.27, '军事博物馆': 1.86, '动物园': 1.96, '南礼士路': 2.94, '国家图书馆': 2.15, '慈寿寺': 2.79, '木樨地': 2.09, '甘家口': 0.75, '白石桥南': 1.02, '花园桥': 1.6, '西钓鱼台': 2.36, '车公庄': 2.62, '车公庄西': 1.83, '阜成门': 2.58}</t>
+  </si>
+  <si>
+    <t>{'丰台南路': 2.72, '丰台科技园': 1.52, '大葆台': 2.27, '科怡路': 1.98, '花乡东桥': 1.22, '郭公庄': 1.14, '首经贸': 2.83}</t>
+  </si>
+  <si>
+    <t>{'万寿寺': 2.12, '军事博物馆': 2.87, '动物园': 1.28, '国家图书馆': 1.12, '慈寿寺': 2.58, '甘家口': 1.31, '白堆子': 1.02, '花园桥': 1.28, '西直门': 2.67, '西钓鱼台': 2.58, '车公庄': 2.45, '车公庄西': 1.57, '阜成门': 2.79, '魏公村': 2.77}</t>
   </si>
   <si>
     <t>{'九龙山': 1.63, '化工': 0.75, '北工大西门': 2.58, '南楼梓庄': 2.02, '四惠': 1.81, '四惠东': 2.34, '大望路': 2.57, '大郊亭': 0.84, '平乐园': 1.92, '欢乐谷景区': 2.9}</t>
@@ -2182,7 +2230,7 @@
     <t>{'中关村': 2.17, '五道口': 1.84, '人民大学': 1.91, '六道口': 2.93, '北京大学东门': 2.7, '大钟寺': 1.18, '海淀黄庄': 1.91, '清华东路西口': 2.69, '牡丹园': 2.55, '知春里': 0.96, '苏州街': 2.87, '西土城': 1.2, '魏公村': 2.51}</t>
   </si>
   <si>
-    <t>{'中关村': 1.35, '五道口': 2.0, '人民大学': 1.22, '北京大学东门': 2.08, '大钟寺': 1.77, '巴沟': 2.99, '海淀黄庄': 0.95, '清华东路西口': 2.86, '知春路': 0.96, '苏州街': 1.91, '西土城': 2.16, '魏公村': 2.1}</t>
+    <t>{'万泉河桥': 2.62, '中关村': 1.35, '五道口': 2.0, '人民大学': 1.22, '北京大学东门': 2.08, '大钟寺': 1.77, '巴沟': 2.99, '海淀黄庄': 0.95, '清华东路西口': 2.86, '知春路': 0.96, '苏州桥': 2.37, '苏州街': 1.91, '西土城': 2.16, '魏公村': 2.1}</t>
   </si>
   <si>
     <t>{'上岸': 2.56, '小园': 1.21, '栗园庄': 2.08}</t>
@@ -2197,7 +2245,7 @@
     <t>{'东单': 1.69, '前门': 2.03, '北京站': 1.46, '天坛东门': 1.18, '天安门东': 2.28, '天安门西': 2.92, '天桥': 2.2, '崇文门': 0.91, '广渠门内': 1.19, '广渠门外': 2.48, '建国门': 2.18, '桥湾': 0.98, '灯市口': 2.67, '王府井': 1.8, '珠市口': 1.87}</t>
   </si>
   <si>
-    <t>{'丰台东大街': 2.53, '丰台南路': 0.89, '丰台科技园': 0.81, '丰台站': 2.0, '大葆台': 2.79, '泥洼': 2.96, '郭公庄': 2.05, '首经贸': 2.36}</t>
+    <t>{'丰台东大街': 2.53, '丰台南路': 0.89, '丰台科技园': 0.81, '丰台站': 2.0, '大葆台': 2.79, '泥洼': 2.96, '白盆窑': 1.98, '花乡东桥': 1.97, '郭公庄': 2.05, '首经贸': 2.36}</t>
   </si>
   <si>
     <t>{'什刹海': 2.32, '北海北': 2.07, '安华桥': 2.87, '安定门': 2.99, '安德里北街': 2.11, '平安里': 1.64, '新街口': 1.0, '西四': 2.72, '西直门': 1.76, '车公庄': 2.41, '鼓楼大街': 1.76}</t>
@@ -2221,7 +2269,7 @@
     <t>{'星城': 2.49, '阎村': 1.04, '阎村东': 1.3}</t>
   </si>
   <si>
-    <t>{'丰台站': 2.53, '泥洼': 2.95, '草桥': 1.55, '首经贸': 1.13}</t>
+    <t>{'东管头南': 1.38, '丰台站': 2.53, '泥洼': 2.95, '花乡东桥': 2.03, '草桥': 1.55, '首经贸': 1.13}</t>
   </si>
   <si>
     <t>{'同济南路': 2.26, '次渠南': 2.07}</t>
@@ -2254,7 +2302,10 @@
     <t>{'三元桥': 2.54, '光熙门': 1.09, '关庄': 2.65, '和平西桥': 1.84, '和平里北街': 2.57, '太阳宫': 1.13, '安贞门': 2.55, '惠新西街北口': 1.97, '惠新西街南口': 1.57, '望京西': 2.34, '柳芳': 2.18}</t>
   </si>
   <si>
-    <t>{'公主坟': 2.77, '军事博物馆': 2.92, '动物园': 2.5, '国家图书馆': 1.72, '慈寿寺': 1.3, '海淀五路居': 2.91, '白堆子': 1.6, '白石桥南': 1.28, '西钓鱼台': 1.46, '车公庄西': 2.85, '车道沟': 2.25}</t>
+    <t>{'东管头南': 2.6, '丰台南路': 2.35, '丰台科技园': 2.01, '丰台站': 2.63, '白盆窑': 1.22, '科怡路': 1.97, '纪家庙': 2.03, '郭公庄': 2.28, '首经贸': 1.69}</t>
+  </si>
+  <si>
+    <t>{'万寿寺': 1.72, '公主坟': 2.77, '军事博物馆': 2.92, '动物园': 2.5, '国家图书馆': 1.72, '慈寿寺': 1.3, '海淀五路居': 2.91, '甘家口': 2.26, '白堆子': 1.6, '白石桥南': 1.28, '西钓鱼台': 1.46, '车公庄西': 2.85, '车道沟': 2.25}</t>
   </si>
   <si>
     <t>{'临河里': 2.53, '土桥': 1.86, '群芳': 2.24, '高楼金': 1.19}</t>
@@ -2263,7 +2314,10 @@
     <t>{'国展': 1.62}</t>
   </si>
   <si>
-    <t>{'中关村': 1.27, '人民大学': 1.6, '北京大学东门': 2.01, '圆明园': 2.69, '巴沟': 1.09, '海淀黄庄': 0.96, '火器营': 1.83, '知春路': 2.87, '知春里': 1.91, '西苑': 2.84, '长春桥': 2.16, '魏公村': 2.44}</t>
+    <t>{'万寿寺': 1.6, '万泉河桥': 2.65, '中关村': 2.54, '人民大学': 1.26, '国家图书馆': 2.56, '巴沟': 1.82, '海淀黄庄': 1.75, '火器营': 1.68, '知春里': 2.37, '苏州街': 1.52, '车道沟': 1.99, '长春桥': 1.24, '魏公村': 1.37}</t>
+  </si>
+  <si>
+    <t>{'万泉河桥': 1.17, '中关村': 1.27, '人民大学': 1.6, '北京大学东门': 2.01, '圆明园': 2.69, '巴沟': 1.09, '海淀黄庄': 0.96, '火器营': 1.83, '知春路': 2.87, '知春里': 1.91, '苏州桥': 1.52, '西苑': 2.84, '长春桥': 2.16, '魏公村': 2.44}</t>
   </si>
   <si>
     <t>{'良乡南关': 1.33, '良乡大学城西': 2.65, '阎村东': 2.19}</t>
@@ -2278,7 +2332,7 @@
     <t>{'八里桥': 2.06, '常营': 1.36, '物资学院路': 2.04, '管庄': 2.22, '通州北苑': 2.94}</t>
   </si>
   <si>
-    <t>{'公益西桥': 1.98, '纪家庙': 1.55, '角门东': 2.93, '角门西': 1.69, '首经贸': 2.67, '马家堡': 1.89}</t>
+    <t>{'东管头南': 2.67, '公益西桥': 1.98, '纪家庙': 1.55, '角门东': 2.93, '角门西': 1.69, '首经贸': 2.67, '马家堡': 1.89}</t>
   </si>
   <si>
     <t>{'万源街': 1.28, '亦庄文化园': 2.47, '荣昌东街': 1.36}</t>
@@ -2302,7 +2356,7 @@
     <t>{'传媒大学': 1.83, '双桥': 1.89, '黄渠': 1.22}</t>
   </si>
   <si>
-    <t>{'上地': 2.52, '清河': 1.51, '龙泽': 2.28}</t>
+    <t>{'上地': 2.52, '清河站': 1.51, '龙泽': 2.28}</t>
   </si>
   <si>
     <t>{'永丰南': 2.05, '马连洼': 2.18}</t>
@@ -2320,19 +2374,19 @@
     <t>{'回龙观': 2.97, '永泰庄': 1.05, '育新': 1.51, '霍营': 2.87}</t>
   </si>
   <si>
-    <t>{'七里庄': 0.81, '丰台东大街': 1.55, '丰台南路': 2.99, '丰台站': 1.91, '六里桥': 1.5, '六里桥东': 2.44, '大井': 2.38, '泥洼': 0.91, '首经贸': 2.85}</t>
-  </si>
-  <si>
-    <t>{'动物园': 1.42, '北海北': 2.8, '国家图书馆': 2.59, '平安里': 1.66, '新街口': 1.05, '白石桥南': 2.67, '积水潭': 1.76, '西四': 2.37, '车公庄': 0.9, '车公庄西': 1.31, '阜成门': 1.87}</t>
+    <t>{'七里庄': 0.81, '东管头南': 2.17, '丰台东大街': 1.55, '丰台南路': 2.99, '丰台站': 1.91, '六里桥': 1.5, '六里桥东': 2.44, '大井': 2.38, '泥洼': 0.91, '首经贸': 2.85}</t>
+  </si>
+  <si>
+    <t>{'动物园': 1.42, '北海北': 2.8, '国家图书馆': 2.59, '平安里': 1.66, '新街口': 1.05, '甘家口': 2.6, '白石桥南': 2.67, '积水潭': 1.76, '西四': 2.37, '车公庄': 0.9, '车公庄西': 1.31, '阜成门': 1.87}</t>
   </si>
   <si>
     <t>{'高米店北': 1.82, '高米店南': 2.94}</t>
   </si>
   <si>
-    <t>{'中关村': 2.69, '农大南路': 2.68, '北京大学东门': 2.23, '北宫门': 1.22, '圆明园': 1.65, '安河桥北': 2.36, '巴沟': 2.69, '苏州街': 2.84, '颐和园西门': 2.74}</t>
-  </si>
-  <si>
-    <t>{'万寿路': 1.8, '五棵松': 2.72, '公主坟': 2.05, '军事博物馆': 2.68, '慈寿寺': 1.11, '海淀五路居': 2.1, '白堆子': 2.36, '白石桥南': 2.58, '花园桥': 1.46, '车道沟': 2.74}</t>
+    <t>{'万泉河桥': 1.67, '中关村': 2.69, '农大南路': 2.68, '北京大学东门': 2.23, '北宫门': 1.22, '圆明园': 1.65, '安河桥北': 2.36, '巴沟': 2.69, '苏州街': 2.84, '颐和园西门': 2.74}</t>
+  </si>
+  <si>
+    <t>{'万寿寺': 2.88, '万寿路': 1.8, '五棵松': 2.72, '公主坟': 2.05, '军事博物馆': 2.68, '慈寿寺': 1.11, '海淀五路居': 2.1, '白堆子': 2.36, '白石桥南': 2.58, '花园桥': 1.46, '车道沟': 2.74}</t>
   </si>
   <si>
     <t>{'八角游乐园': 2.95, '廖公庄': 1.74, '杨庄': 1.82, '苹果园': 2.63}</t>
@@ -2344,13 +2398,13 @@
     <t>{'公益西桥': 1.08, '北京南站': 2.23, '大红门': 2.39, '大红门南': 2.75, '木樨园': 2.87, '海户屯': 2.57, '草桥': 1.69, '角门东': 1.24, '马家堡': 0.81}</t>
   </si>
   <si>
-    <t>{'动物园': 1.46, '北海北': 2.77, '南礼士路': 2.8, '国家图书馆': 2.76, '复兴门': 2.81, '平安里': 1.59, '新街口': 1.47, '灵境胡同': 2.47, '白堆子': 2.62, '白石桥南': 2.45, '积水潭': 2.41, '西四': 1.86, '西直门': 0.9, '车公庄西': 0.88, '阜成门': 0.98}</t>
-  </si>
-  <si>
-    <t>{'动物园': 0.77, '南礼士路': 2.9, '国家图书馆': 2.0, '平安里': 2.46, '新街口': 2.21, '木樨地': 2.84, '白堆子': 1.83, '白石桥南': 1.57, '花园桥': 2.85, '西四': 2.66, '西直门': 1.31, '车公庄': 0.88, '阜成门': 1.41}</t>
-  </si>
-  <si>
-    <t>{'国家图书馆': 2.73, '巴沟': 2.92, '慈寿寺': 1.64, '海淀五路居': 2.25, '火器营': 2.04, '花园桥': 2.25, '西钓鱼台': 2.74, '长春桥': 1.18, '魏公村': 2.74}</t>
+    <t>{'动物园': 1.46, '北海北': 2.77, '南礼士路': 2.8, '国家图书馆': 2.76, '复兴门': 2.81, '平安里': 1.59, '新街口': 1.47, '灵境胡同': 2.47, '甘家口': 1.96, '白堆子': 2.62, '白石桥南': 2.45, '积水潭': 2.41, '西四': 1.86, '西直门': 0.9, '车公庄西': 0.88, '阜成门': 0.98}</t>
+  </si>
+  <si>
+    <t>{'动物园': 0.77, '南礼士路': 2.9, '国家图书馆': 2.0, '平安里': 2.46, '新街口': 2.21, '木樨地': 2.84, '甘家口': 1.3, '白堆子': 1.83, '白石桥南': 1.57, '花园桥': 2.85, '西四': 2.66, '西直门': 1.31, '车公庄': 0.88, '阜成门': 1.41}</t>
+  </si>
+  <si>
+    <t>{'万寿寺': 1.37, '国家图书馆': 2.73, '巴沟': 2.92, '慈寿寺': 1.64, '海淀五路居': 2.25, '火器营': 2.04, '花园桥': 2.25, '苏州桥': 1.99, '西钓鱼台': 2.74, '长春桥': 1.18, '魏公村': 2.74}</t>
   </si>
   <si>
     <t>{'公主坟': 2.99, '六里桥东': 1.85, '军事博物馆': 2.33, '北京西站': 1.41, '南礼士路': 2.37, '复兴门': 2.6, '广安门内': 1.86, '木樨地': 1.95, '湾子': 0.74, '莲花桥': 2.4, '长椿街': 2.53}</t>
@@ -2368,7 +2422,7 @@
     <t>{'东夏园': 1.37, '北运河东': 0.92, '北运河西': 2.51, '潞城': 2.53}</t>
   </si>
   <si>
-    <t>{'丰台南路': 2.94, '丰台科技园': 1.28, '大葆台': 1.13, '科怡路': 2.05}</t>
+    <t>{'丰台南路': 2.94, '丰台科技园': 1.28, '大葆台': 1.13, '白盆窑': 1.14, '科怡路': 2.05, '花乡东桥': 2.28}</t>
   </si>
   <si>
     <t>{'大井': 1.96, '大瓦窑': 1.23}</t>
@@ -2383,7 +2437,7 @@
     <t>{'古城': 2.93, '四道桥': 2.63, '杨庄': 2.09, '苹果园': 1.26}</t>
   </si>
   <si>
-    <t>{'人民大学': 2.49, '巴沟': 1.74, '慈寿寺': 2.81, '海淀黄庄': 2.78, '火器营': 0.94, '苏州街': 2.16, '车道沟': 1.18, '魏公村': 2.47}</t>
+    <t>{'万寿寺': 1.79, '万泉河桥': 2.99, '人民大学': 2.49, '巴沟': 1.74, '慈寿寺': 2.81, '海淀黄庄': 2.78, '火器营': 0.94, '苏州桥': 1.24, '苏州街': 2.16, '车道沟': 1.18, '魏公村': 2.47}</t>
   </si>
   <si>
     <t>{'前门': 2.95, '南礼士路': 1.26, '和平门': 1.78, '复兴门': 1.03, '天安门西': 2.54, '宣武门': 0.94, '广安门内': 1.2, '木樨地': 2.37, '灵境胡同': 2.04, '菜市口': 1.47, '虎坊桥': 2.12, '西单': 1.27, '西四': 2.88, '达官营': 2.53, '阜成门': 2.77, '陶然亭': 2.51}</t>
@@ -2398,7 +2452,7 @@
     <t>{'紫草坞': 1.3, '苏庄': 2.19, '阎村': 2.23}</t>
   </si>
   <si>
-    <t>{'动物园': 2.17, '北海北': 2.83, '南礼士路': 1.85, '复兴门': 1.83, '平安里': 1.84, '新街口': 2.14, '木樨地': 2.4, '灵境胡同': 1.74, '白堆子': 2.58, '白石桥南': 2.79, '西单': 2.38, '西四': 1.48, '西直门': 1.87, '车公庄': 0.98, '车公庄西': 1.41, '长椿街': 2.77}</t>
+    <t>{'动物园': 2.17, '北海北': 2.83, '南礼士路': 1.85, '复兴门': 1.83, '平安里': 1.84, '新街口': 2.14, '木樨地': 2.4, '灵境胡同': 1.74, '甘家口': 1.83, '白堆子': 2.58, '白石桥南': 2.79, '西单': 2.38, '西四': 1.48, '西直门': 1.87, '车公庄': 0.98, '车公庄西': 1.41, '长椿街': 2.77}</t>
   </si>
   <si>
     <t>{'东湖渠': 2.14, '太阳宫': 2.96, '将台': 2.74, '望京': 0.78, '望京东': 1.83, '望京南': 1.15, '望京西': 1.91}</t>
@@ -2425,7 +2479,7 @@
     <t>{'房山城关': 1.5, '马各庄': 0.99}</t>
   </si>
   <si>
-    <t>{'丰台东大街': 2.54, '丰台南路': 2.05, '丰台科技园': 2.9, '丰台站': 1.46, '泥洼': 2.08, '科怡路': 2.36, '纪家庙': 1.13, '草桥': 2.67, '西局': 2.85}</t>
+    <t>{'东管头南': 0.91, '丰台东大街': 2.54, '丰台南路': 2.05, '丰台科技园': 2.9, '丰台站': 1.46, '泥洼': 2.08, '白盆窑': 2.83, '科怡路': 2.36, '纪家庙': 1.13, '花乡东桥': 1.69, '草桥': 2.67, '西局': 2.85}</t>
   </si>
   <si>
     <t>{'万安': 2.59, '植物园': 0.88}</t>
@@ -2455,7 +2509,7 @@
     <t>{'枣园': 1.12, '清源路': 2.31, '西红门': 2.94, '高米店北': 1.12}</t>
   </si>
   <si>
-    <t>{'中关村': 2.96, '人民大学': 1.02, '动物园': 2.57, '国家图书馆': 1.65, '大钟寺': 2.1, '海淀黄庄': 2.07, '白石桥南': 2.77, '知春路': 2.51, '知春里': 2.1, '苏州街': 2.44, '车道沟': 2.74, '长春桥': 2.47}</t>
+    <t>{'万寿寺': 1.6, '中关村': 2.96, '人民大学': 1.02, '动物园': 2.57, '国家图书馆': 1.65, '大钟寺': 2.1, '海淀黄庄': 2.07, '白石桥南': 2.77, '知春路': 2.51, '知春里': 2.1, '苏州桥': 1.37, '苏州街': 2.44, '车道沟': 2.74, '长春桥': 2.47}</t>
   </si>
   <si>
     <t>{'双合': 2.59, '焦化厂': 1.58, '郎辛庄': 1.61}</t>
@@ -2834,7 +2888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2865,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2882,13 +2936,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2899,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2916,13 +2970,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2933,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2950,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2967,13 +3021,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2984,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3001,13 +3055,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3018,13 +3072,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3032,16 +3086,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3049,16 +3103,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D13">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3066,16 +3120,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3083,16 +3137,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3100,16 +3154,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3120,13 +3174,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3137,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3154,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3171,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3185,16 +3239,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3202,16 +3256,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3219,16 +3273,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3236,16 +3290,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3253,16 +3307,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3270,16 +3324,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3290,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D27">
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3307,13 +3361,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D28">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3321,16 +3375,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3341,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3355,16 +3409,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3375,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3389,16 +3443,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3406,16 +3460,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3423,16 +3477,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D35">
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3440,16 +3494,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3457,16 +3511,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3477,13 +3531,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D38">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3491,16 +3545,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3508,16 +3562,16 @@
         <v>43</v>
       </c>
       <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
+      <c r="D40">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>366</v>
-      </c>
-      <c r="D40">
-        <v>15</v>
-      </c>
       <c r="E40" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3525,16 +3579,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3545,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3559,16 +3613,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D43">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3579,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D44">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3596,13 +3650,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3610,16 +3664,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3630,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D47">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3644,16 +3698,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3664,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D49">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3681,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D50">
         <v>6</v>
       </c>
       <c r="E50" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3695,16 +3749,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="D51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3715,13 +3769,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E52" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3732,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D53">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3746,16 +3800,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D54">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3763,16 +3817,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="D55">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3783,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E56" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3800,13 +3854,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3814,16 +3868,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D58">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3831,16 +3885,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3851,13 +3905,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D60">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3868,13 +3922,13 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D61">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3882,16 +3936,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E62" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3899,16 +3953,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3916,16 +3970,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3933,16 +3987,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D65">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3950,16 +4004,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3967,16 +4021,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D67">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3984,16 +4038,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4001,16 +4055,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4018,16 +4072,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="D70">
         <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4035,16 +4089,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="D71">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4055,13 +4109,13 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4069,16 +4123,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="D73">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4086,16 +4140,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4106,13 +4160,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4123,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4140,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4157,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4171,16 +4225,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4191,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4208,13 +4262,13 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4222,16 +4276,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4242,13 +4296,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4256,16 +4310,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="D84">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E84" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4273,16 +4327,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4290,16 +4344,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="D86">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4307,16 +4361,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="D87">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4324,16 +4378,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4341,16 +4395,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>345</v>
+        <v>394</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E89" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4361,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4375,16 +4429,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4395,13 +4449,13 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>345</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4409,16 +4463,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
       <c r="D93">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4429,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4443,16 +4497,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>389</v>
+        <v>352</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>576</v>
+        <v>352</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4460,16 +4514,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="D96">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4477,16 +4531,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4494,16 +4548,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4514,13 +4568,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D99">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4528,16 +4582,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="D100">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4545,16 +4599,16 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="D101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4565,13 +4619,13 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4582,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E103" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4599,13 +4653,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D104">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4616,13 +4670,13 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E105" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4633,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D106">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4647,16 +4701,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4664,16 +4718,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="D108">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4681,16 +4735,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="D109">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4698,16 +4752,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4715,16 +4769,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E111" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4735,13 +4789,13 @@
         <v>1</v>
       </c>
       <c r="C112" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D112">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4749,16 +4803,16 @@
         <v>116</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4769,13 +4823,13 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4783,16 +4837,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>345</v>
+        <v>607</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4800,16 +4854,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="D116">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E116" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4820,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D117">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4837,13 +4891,13 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>598</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4851,16 +4905,16 @@
         <v>122</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="D119">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4868,16 +4922,16 @@
         <v>123</v>
       </c>
       <c r="B120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="D120">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4885,16 +4939,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="D121">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4905,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4922,13 +4976,13 @@
         <v>2</v>
       </c>
       <c r="C123" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E123" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4936,16 +4990,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>345</v>
+        <v>407</v>
       </c>
       <c r="D124">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4956,13 +5010,13 @@
         <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D125">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E125" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4970,16 +5024,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C126" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="D126">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4987,16 +5041,16 @@
         <v>130</v>
       </c>
       <c r="B127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C127" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="D127">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5007,13 +5061,13 @@
         <v>0</v>
       </c>
       <c r="C128" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E128" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5021,16 +5075,16 @@
         <v>132</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>345</v>
+        <v>409</v>
       </c>
       <c r="D129">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E129" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5041,13 +5095,13 @@
         <v>2</v>
       </c>
       <c r="C130" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E130" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5055,16 +5109,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5072,16 +5126,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E132" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5089,16 +5143,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="D133">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5109,13 +5163,13 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D134">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5126,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="C135" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D135">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E135" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5143,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="C136" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5160,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D137">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5177,13 +5231,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D138">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5191,16 +5245,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>410</v>
+        <v>352</v>
       </c>
       <c r="D139">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5208,16 +5262,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="D140">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E140" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5228,13 +5282,13 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D141">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5242,16 +5296,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C142" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D142">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E142" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5262,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E143" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5276,16 +5330,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D144">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5293,16 +5347,16 @@
         <v>148</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C145" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E145" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5310,16 +5364,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>414</v>
+        <v>352</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E146" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5327,16 +5381,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C147" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5347,13 +5401,13 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5361,16 +5415,16 @@
         <v>152</v>
       </c>
       <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149">
         <v>4</v>
       </c>
-      <c r="C149" t="s">
-        <v>415</v>
-      </c>
-      <c r="D149">
-        <v>20</v>
-      </c>
       <c r="E149" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5381,13 +5435,13 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5398,13 +5452,13 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5412,16 +5466,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D152">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E152" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5432,13 +5486,13 @@
         <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D153">
         <v>5</v>
       </c>
       <c r="E153" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5446,16 +5500,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="D154">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5466,13 +5520,13 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D155">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5483,13 +5537,13 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E156" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5497,16 +5551,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="D157">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E157" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5514,16 +5568,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>345</v>
+        <v>426</v>
       </c>
       <c r="D158">
         <v>14</v>
       </c>
       <c r="E158" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5534,13 +5588,13 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D159">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5551,13 +5605,13 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E160" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5568,13 +5622,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D161">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E161" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5582,16 +5636,16 @@
         <v>165</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="D162">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5599,16 +5653,16 @@
         <v>166</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
       <c r="D163">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5619,13 +5673,13 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5633,16 +5687,16 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>345</v>
+        <v>427</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E165" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5650,16 +5704,16 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="D166">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5667,16 +5721,16 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="D167">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5687,13 +5741,13 @@
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D168">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E168" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5701,16 +5755,16 @@
         <v>172</v>
       </c>
       <c r="B169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>422</v>
+        <v>352</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5718,16 +5772,16 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>345</v>
+        <v>429</v>
       </c>
       <c r="D170">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5738,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5752,16 +5806,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="D172">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E172" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5772,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5789,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="C174" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5803,16 +5857,16 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5823,13 +5877,13 @@
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D176">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5840,13 +5894,13 @@
         <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5857,13 +5911,13 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5874,13 +5928,13 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D179">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E179" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5888,16 +5942,16 @@
         <v>183</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>424</v>
+        <v>352</v>
       </c>
       <c r="D180">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E180" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5908,13 +5962,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D181">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5925,13 +5979,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D182">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E182" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5939,16 +5993,16 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>345</v>
+        <v>432</v>
       </c>
       <c r="D183">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E183" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5959,13 +6013,13 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D184">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E184" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5976,13 +6030,13 @@
         <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D185">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5990,16 +6044,16 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C186" t="s">
-        <v>425</v>
+        <v>352</v>
       </c>
       <c r="D186">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E186" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6010,13 +6064,13 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D187">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6027,13 +6081,13 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E188" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6041,16 +6095,16 @@
         <v>192</v>
       </c>
       <c r="B189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>345</v>
+        <v>433</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6058,16 +6112,16 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="D190">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6078,13 +6132,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E191" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6092,16 +6146,16 @@
         <v>195</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C192" t="s">
-        <v>427</v>
+        <v>352</v>
       </c>
       <c r="D192">
         <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6109,16 +6163,16 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="D193">
         <v>4</v>
       </c>
       <c r="E193" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6129,13 +6183,13 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E194" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6143,16 +6197,16 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>345</v>
+        <v>435</v>
       </c>
       <c r="D195">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6160,16 +6214,16 @@
         <v>199</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>428</v>
+        <v>352</v>
       </c>
       <c r="D196">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6177,16 +6231,16 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E197" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6194,16 +6248,16 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>430</v>
+        <v>352</v>
       </c>
       <c r="D198">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
-        <v>678</v>
+        <v>689</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6211,16 +6265,16 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>345</v>
+        <v>436</v>
       </c>
       <c r="D199">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E199" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6228,16 +6282,16 @@
         <v>203</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C200" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D200">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E200" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6245,16 +6299,16 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C201" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E201" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6265,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D202">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E202" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6279,16 +6333,16 @@
         <v>206</v>
       </c>
       <c r="B203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="D203">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E203" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6299,13 +6353,13 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E204" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6316,13 +6370,13 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6333,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="C206" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6350,13 +6404,13 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="D207">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E207" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6364,16 +6418,16 @@
         <v>211</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>435</v>
+        <v>352</v>
       </c>
       <c r="D208">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E208" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6384,13 +6438,13 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6398,16 +6452,16 @@
         <v>213</v>
       </c>
       <c r="B210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>345</v>
+        <v>442</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E210" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6415,16 +6469,16 @@
         <v>214</v>
       </c>
       <c r="B211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E211" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6432,16 +6486,16 @@
         <v>215</v>
       </c>
       <c r="B212">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>436</v>
+        <v>352</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E212" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6449,16 +6503,16 @@
         <v>216</v>
       </c>
       <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>352</v>
+      </c>
+      <c r="D213">
         <v>2</v>
       </c>
-      <c r="C213" t="s">
-        <v>437</v>
-      </c>
-      <c r="D213">
-        <v>13</v>
-      </c>
       <c r="E213" t="s">
-        <v>693</v>
+        <v>704</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6469,13 +6523,13 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D214">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6486,13 +6540,13 @@
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D215">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6500,16 +6554,16 @@
         <v>219</v>
       </c>
       <c r="B216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C216" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D216">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E216" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6520,13 +6574,13 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E217" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6534,16 +6588,16 @@
         <v>221</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>345</v>
+        <v>446</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E218" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6551,16 +6605,16 @@
         <v>222</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>345</v>
+        <v>447</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E219" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6568,16 +6622,16 @@
         <v>223</v>
       </c>
       <c r="B220">
+        <v>0</v>
+      </c>
+      <c r="C220" t="s">
+        <v>352</v>
+      </c>
+      <c r="D220">
         <v>2</v>
       </c>
-      <c r="C220" t="s">
-        <v>440</v>
-      </c>
-      <c r="D220">
-        <v>10</v>
-      </c>
       <c r="E220" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6585,16 +6639,16 @@
         <v>224</v>
       </c>
       <c r="B221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>441</v>
+        <v>352</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6605,13 +6659,13 @@
         <v>0</v>
       </c>
       <c r="C222" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D222">
         <v>2</v>
       </c>
       <c r="E222" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6619,16 +6673,16 @@
         <v>226</v>
       </c>
       <c r="B223">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C223" t="s">
-        <v>345</v>
+        <v>448</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6636,16 +6690,16 @@
         <v>227</v>
       </c>
       <c r="B224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D224">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E224" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6656,13 +6710,13 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E225" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6670,16 +6724,16 @@
         <v>229</v>
       </c>
       <c r="B226">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>443</v>
+        <v>352</v>
       </c>
       <c r="D226">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6690,13 +6744,13 @@
         <v>2</v>
       </c>
       <c r="C227" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D227">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E227" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6704,16 +6758,16 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>445</v>
+        <v>352</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6721,16 +6775,16 @@
         <v>232</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C229" t="s">
-        <v>345</v>
+        <v>451</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E229" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6738,16 +6792,16 @@
         <v>233</v>
       </c>
       <c r="B230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C230" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E230" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6755,16 +6809,16 @@
         <v>234</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>345</v>
+        <v>453</v>
       </c>
       <c r="D231">
         <v>4</v>
       </c>
       <c r="E231" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6775,13 +6829,13 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D232">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6789,16 +6843,16 @@
         <v>236</v>
       </c>
       <c r="B233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D233">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E233" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6806,16 +6860,16 @@
         <v>237</v>
       </c>
       <c r="B234">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>448</v>
+        <v>352</v>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E234" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6826,13 +6880,13 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E235" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6840,16 +6894,16 @@
         <v>239</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C236" t="s">
-        <v>345</v>
+        <v>455</v>
       </c>
       <c r="D236">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E236" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6857,16 +6911,16 @@
         <v>240</v>
       </c>
       <c r="B237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C237" t="s">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="D237">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E237" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6874,16 +6928,16 @@
         <v>241</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="D238">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E238" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6894,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="C239" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D239">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E239" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6908,16 +6962,16 @@
         <v>243</v>
       </c>
       <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>352</v>
+      </c>
+      <c r="D240">
         <v>2</v>
       </c>
-      <c r="C240" t="s">
-        <v>449</v>
-      </c>
-      <c r="D240">
-        <v>10</v>
-      </c>
       <c r="E240" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6925,16 +6979,16 @@
         <v>244</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="s">
-        <v>450</v>
+        <v>352</v>
       </c>
       <c r="D241">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E241" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6942,16 +6996,16 @@
         <v>245</v>
       </c>
       <c r="B242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D242">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E242" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6962,13 +7016,13 @@
         <v>0</v>
       </c>
       <c r="C243" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E243" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6979,13 +7033,13 @@
         <v>0</v>
       </c>
       <c r="C244" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D244">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E244" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6993,16 +7047,16 @@
         <v>248</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C245" t="s">
-        <v>345</v>
+        <v>459</v>
       </c>
       <c r="D245">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E245" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7010,16 +7064,16 @@
         <v>249</v>
       </c>
       <c r="B246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D246">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E246" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7030,13 +7084,13 @@
         <v>2</v>
       </c>
       <c r="C247" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D247">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E247" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7044,16 +7098,16 @@
         <v>251</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="s">
-        <v>454</v>
+        <v>352</v>
       </c>
       <c r="D248">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E248" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7064,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="C249" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D249">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E249" t="s">
-        <v>345</v>
+        <v>740</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7081,13 +7135,13 @@
         <v>0</v>
       </c>
       <c r="C250" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D250">
         <v>2</v>
       </c>
       <c r="E250" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7095,16 +7149,16 @@
         <v>254</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C251" t="s">
-        <v>345</v>
+        <v>462</v>
       </c>
       <c r="D251">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E251" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7112,16 +7166,16 @@
         <v>255</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C252" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
       <c r="D252">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E252" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7129,16 +7183,16 @@
         <v>256</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>345</v>
+        <v>464</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E253" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7149,13 +7203,13 @@
         <v>0</v>
       </c>
       <c r="C254" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D254">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E254" t="s">
-        <v>733</v>
+        <v>352</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7166,13 +7220,13 @@
         <v>0</v>
       </c>
       <c r="C255" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E255" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7183,13 +7237,13 @@
         <v>0</v>
       </c>
       <c r="C256" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E256" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7200,13 +7254,13 @@
         <v>0</v>
       </c>
       <c r="C257" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E257" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7217,13 +7271,13 @@
         <v>0</v>
       </c>
       <c r="C258" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D258">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E258" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7234,13 +7288,13 @@
         <v>0</v>
       </c>
       <c r="C259" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E259" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7251,13 +7305,13 @@
         <v>0</v>
       </c>
       <c r="C260" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E260" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7268,13 +7322,13 @@
         <v>0</v>
       </c>
       <c r="C261" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E261" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7285,13 +7339,13 @@
         <v>0</v>
       </c>
       <c r="C262" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D262">
         <v>2</v>
       </c>
       <c r="E262" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7299,16 +7353,16 @@
         <v>266</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="s">
-        <v>455</v>
+        <v>352</v>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E263" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7316,16 +7370,16 @@
         <v>267</v>
       </c>
       <c r="B264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="s">
-        <v>456</v>
+        <v>352</v>
       </c>
       <c r="D264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E264" t="s">
-        <v>743</v>
+        <v>754</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7336,13 +7390,13 @@
         <v>0</v>
       </c>
       <c r="C265" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D265">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E265" t="s">
-        <v>744</v>
+        <v>755</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7353,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="C266" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D266">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E266" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7370,13 +7424,13 @@
         <v>0</v>
       </c>
       <c r="C267" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D267">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E267" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7384,16 +7438,16 @@
         <v>271</v>
       </c>
       <c r="B268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
-        <v>345</v>
+        <v>465</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E268" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7401,16 +7455,16 @@
         <v>272</v>
       </c>
       <c r="B269">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E269" t="s">
-        <v>748</v>
+        <v>759</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7418,16 +7472,16 @@
         <v>273</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C270" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="D270">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E270" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7438,13 +7492,13 @@
         <v>0</v>
       </c>
       <c r="C271" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D271">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E271" t="s">
-        <v>750</v>
+        <v>761</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7452,16 +7506,16 @@
         <v>275</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="s">
-        <v>458</v>
+        <v>352</v>
       </c>
       <c r="D272">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E272" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7472,13 +7526,13 @@
         <v>0</v>
       </c>
       <c r="C273" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E273" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7489,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="C274" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D274">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E274" t="s">
-        <v>753</v>
+        <v>764</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7506,13 +7560,13 @@
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E275" t="s">
-        <v>754</v>
+        <v>765</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7523,13 +7577,13 @@
         <v>0</v>
       </c>
       <c r="C276" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D276">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E276" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7537,16 +7591,16 @@
         <v>280</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>345</v>
+        <v>467</v>
       </c>
       <c r="D277">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E277" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7554,16 +7608,16 @@
         <v>281</v>
       </c>
       <c r="B278">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="s">
-        <v>459</v>
+        <v>352</v>
       </c>
       <c r="D278">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E278" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7574,13 +7628,13 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D279">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E279" t="s">
-        <v>758</v>
+        <v>769</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7588,16 +7642,16 @@
         <v>283</v>
       </c>
       <c r="B280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="s">
-        <v>461</v>
+        <v>352</v>
       </c>
       <c r="D280">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E280" t="s">
-        <v>759</v>
+        <v>770</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7605,16 +7659,16 @@
         <v>284</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="s">
-        <v>462</v>
+        <v>352</v>
       </c>
       <c r="D281">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E281" t="s">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7625,13 +7679,13 @@
         <v>0</v>
       </c>
       <c r="C282" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D282">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E282" t="s">
-        <v>761</v>
+        <v>772</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7642,13 +7696,13 @@
         <v>0</v>
       </c>
       <c r="C283" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D283">
         <v>3</v>
       </c>
       <c r="E283" t="s">
-        <v>762</v>
+        <v>773</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7659,13 +7713,13 @@
         <v>0</v>
       </c>
       <c r="C284" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E284" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7673,16 +7727,16 @@
         <v>288</v>
       </c>
       <c r="B285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C285" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D285">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E285" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7693,13 +7747,13 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D286">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E286" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7707,16 +7761,16 @@
         <v>290</v>
       </c>
       <c r="B287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="D287">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E287" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7724,16 +7778,16 @@
         <v>291</v>
       </c>
       <c r="B288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>345</v>
+        <v>472</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E288" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7741,16 +7795,16 @@
         <v>292</v>
       </c>
       <c r="B289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C289" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="D289">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E289" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7758,16 +7812,16 @@
         <v>293</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="D290">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E290" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7778,13 +7832,13 @@
         <v>0</v>
       </c>
       <c r="C291" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D291">
         <v>2</v>
       </c>
       <c r="E291" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7792,16 +7846,16 @@
         <v>295</v>
       </c>
       <c r="B292">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C292" t="s">
-        <v>345</v>
+        <v>473</v>
       </c>
       <c r="D292">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E292" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7809,16 +7863,16 @@
         <v>296</v>
       </c>
       <c r="B293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="s">
-        <v>345</v>
+        <v>474</v>
       </c>
       <c r="D293">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E293" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7829,13 +7883,13 @@
         <v>0</v>
       </c>
       <c r="C294" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D294">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E294" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7846,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="C295" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D295">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E295" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7860,16 +7914,16 @@
         <v>299</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C296" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D296">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E296" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7877,16 +7931,16 @@
         <v>300</v>
       </c>
       <c r="B297">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C297" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D297">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E297" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7894,16 +7948,16 @@
         <v>301</v>
       </c>
       <c r="B298">
+        <v>0</v>
+      </c>
+      <c r="C298" t="s">
+        <v>352</v>
+      </c>
+      <c r="D298">
         <v>2</v>
       </c>
-      <c r="C298" t="s">
-        <v>469</v>
-      </c>
-      <c r="D298">
-        <v>13</v>
-      </c>
       <c r="E298" t="s">
-        <v>777</v>
+        <v>788</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7914,13 +7968,13 @@
         <v>0</v>
       </c>
       <c r="C299" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D299">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E299" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7928,16 +7982,16 @@
         <v>303</v>
       </c>
       <c r="B300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="s">
-        <v>470</v>
+        <v>352</v>
       </c>
       <c r="D300">
         <v>11</v>
       </c>
       <c r="E300" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7948,13 +8002,13 @@
         <v>0</v>
       </c>
       <c r="C301" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D301">
         <v>4</v>
       </c>
       <c r="E301" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7965,13 +8019,13 @@
         <v>0</v>
       </c>
       <c r="C302" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D302">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E302" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7979,16 +8033,16 @@
         <v>306</v>
       </c>
       <c r="B303">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="D303">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E303" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7996,16 +8050,16 @@
         <v>307</v>
       </c>
       <c r="B304">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C304" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D304">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E304" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8013,16 +8067,16 @@
         <v>308</v>
       </c>
       <c r="B305">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C305" t="s">
-        <v>345</v>
+        <v>479</v>
       </c>
       <c r="D305">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E305" t="s">
-        <v>784</v>
+        <v>795</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8033,13 +8087,13 @@
         <v>0</v>
       </c>
       <c r="C306" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D306">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E306" t="s">
-        <v>785</v>
+        <v>796</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8047,16 +8101,16 @@
         <v>310</v>
       </c>
       <c r="B307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C307" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="D307">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E307" t="s">
-        <v>786</v>
+        <v>797</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8067,13 +8121,13 @@
         <v>0</v>
       </c>
       <c r="C308" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D308">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E308" t="s">
-        <v>787</v>
+        <v>798</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8084,13 +8138,13 @@
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D309">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E309" t="s">
-        <v>788</v>
+        <v>799</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8098,16 +8152,16 @@
         <v>313</v>
       </c>
       <c r="B310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="D310">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E310" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8118,13 +8172,13 @@
         <v>1</v>
       </c>
       <c r="C311" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="D311">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E311" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8135,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="C312" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E312" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8152,13 +8206,13 @@
         <v>0</v>
       </c>
       <c r="C313" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E313" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8166,16 +8220,16 @@
         <v>317</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C314" t="s">
-        <v>345</v>
+        <v>482</v>
       </c>
       <c r="D314">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E314" t="s">
-        <v>793</v>
+        <v>804</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8183,16 +8237,16 @@
         <v>318</v>
       </c>
       <c r="B315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C315" t="s">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="D315">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E315" t="s">
-        <v>794</v>
+        <v>805</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8200,16 +8254,16 @@
         <v>319</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="s">
-        <v>476</v>
+        <v>352</v>
       </c>
       <c r="D316">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E316" t="s">
-        <v>795</v>
+        <v>806</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8217,16 +8271,16 @@
         <v>320</v>
       </c>
       <c r="B317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="s">
-        <v>345</v>
+        <v>483</v>
       </c>
       <c r="D317">
         <v>11</v>
       </c>
       <c r="E317" t="s">
-        <v>796</v>
+        <v>807</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8234,16 +8288,16 @@
         <v>321</v>
       </c>
       <c r="B318">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D318">
         <v>16</v>
       </c>
       <c r="E318" t="s">
-        <v>797</v>
+        <v>808</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8254,13 +8308,13 @@
         <v>0</v>
       </c>
       <c r="C319" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D319">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E319" t="s">
-        <v>798</v>
+        <v>809</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8271,13 +8325,13 @@
         <v>0</v>
       </c>
       <c r="C320" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D320">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E320" t="s">
-        <v>799</v>
+        <v>810</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8288,13 +8342,13 @@
         <v>0</v>
       </c>
       <c r="C321" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E321" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8302,16 +8356,16 @@
         <v>325</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>345</v>
+        <v>485</v>
       </c>
       <c r="D322">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E322" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8322,13 +8376,13 @@
         <v>1</v>
       </c>
       <c r="C323" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="D323">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E323" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8339,13 +8393,13 @@
         <v>0</v>
       </c>
       <c r="C324" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D324">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E324" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8353,16 +8407,16 @@
         <v>328</v>
       </c>
       <c r="B325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C325" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E325" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8370,16 +8424,16 @@
         <v>329</v>
       </c>
       <c r="B326">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="s">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="D326">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E326" t="s">
-        <v>805</v>
+        <v>816</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8387,16 +8441,16 @@
         <v>330</v>
       </c>
       <c r="B327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="s">
-        <v>481</v>
+        <v>352</v>
       </c>
       <c r="D327">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E327" t="s">
-        <v>806</v>
+        <v>817</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8407,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="C328" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328" t="s">
-        <v>807</v>
+        <v>818</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8424,13 +8478,13 @@
         <v>0</v>
       </c>
       <c r="C329" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D329">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E329" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8441,13 +8495,13 @@
         <v>1</v>
       </c>
       <c r="C330" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D330">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E330" t="s">
-        <v>809</v>
+        <v>820</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8455,16 +8509,16 @@
         <v>334</v>
       </c>
       <c r="B331">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="s">
-        <v>345</v>
+        <v>489</v>
       </c>
       <c r="D331">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E331" t="s">
-        <v>810</v>
+        <v>821</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8472,16 +8526,16 @@
         <v>335</v>
       </c>
       <c r="B332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="s">
-        <v>345</v>
+        <v>490</v>
       </c>
       <c r="D332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E332" t="s">
-        <v>811</v>
+        <v>822</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8489,16 +8543,16 @@
         <v>336</v>
       </c>
       <c r="B333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C333" t="s">
-        <v>345</v>
+        <v>491</v>
       </c>
       <c r="D333">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E333" t="s">
-        <v>812</v>
+        <v>823</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8506,16 +8560,16 @@
         <v>337</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="s">
-        <v>345</v>
+        <v>492</v>
       </c>
       <c r="D334">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E334" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8526,13 +8580,13 @@
         <v>0</v>
       </c>
       <c r="C335" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D335">
         <v>3</v>
       </c>
       <c r="E335" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8540,16 +8594,16 @@
         <v>339</v>
       </c>
       <c r="B336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="s">
-        <v>483</v>
+        <v>352</v>
       </c>
       <c r="D336">
         <v>3</v>
       </c>
       <c r="E336" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8560,13 +8614,13 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D337">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E337" t="s">
-        <v>816</v>
+        <v>827</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8577,13 +8631,13 @@
         <v>0</v>
       </c>
       <c r="C338" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D338">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E338" t="s">
-        <v>817</v>
+        <v>828</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8594,13 +8648,13 @@
         <v>0</v>
       </c>
       <c r="C339" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E339" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8608,16 +8662,16 @@
         <v>343</v>
       </c>
       <c r="B340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="s">
-        <v>485</v>
+        <v>352</v>
       </c>
       <c r="D340">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E340" t="s">
-        <v>819</v>
+        <v>830</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8628,13 +8682,132 @@
         <v>0</v>
       </c>
       <c r="C341" t="s">
+        <v>352</v>
+      </c>
+      <c r="D341">
+        <v>14</v>
+      </c>
+      <c r="E341" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
         <v>345</v>
       </c>
-      <c r="D341">
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342" t="s">
+        <v>352</v>
+      </c>
+      <c r="D342">
+        <v>3</v>
+      </c>
+      <c r="E342" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>346</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" t="s">
+        <v>494</v>
+      </c>
+      <c r="D343">
+        <v>3</v>
+      </c>
+      <c r="E343" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>347</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" t="s">
+        <v>495</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+      <c r="E344" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>348</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345" t="s">
+        <v>352</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+      <c r="E345" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>349</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+      <c r="C346" t="s">
+        <v>352</v>
+      </c>
+      <c r="D346">
+        <v>2</v>
+      </c>
+      <c r="E346" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>350</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" t="s">
+        <v>496</v>
+      </c>
+      <c r="D347">
+        <v>14</v>
+      </c>
+      <c r="E347" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>351</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348" t="s">
+        <v>352</v>
+      </c>
+      <c r="D348">
         <v>4</v>
       </c>
-      <c r="E341" t="s">
-        <v>820</v>
+      <c r="E348" t="s">
+        <v>838</v>
       </c>
     </row>
   </sheetData>
